--- a/src/tutorials/scenario_generation/input_generator_simple_pdfs.xlsx
+++ b/src/tutorials/scenario_generation/input_generator_simple_pdfs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aytugy\Desktop\workspace\datafev\src\tutorials\scenario_generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5C7EB9-A119-4404-9CBC-64FD72D92EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D5055E-EEBD-4D24-A68D-3D07B06D8DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{786279F1-1AC9-41FC-9C31-90F9BBEA2A7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{786279F1-1AC9-41FC-9C31-90F9BBEA2A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="ArrivalTime" sheetId="1" r:id="rId1"/>
@@ -39,59 +39,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>WeekdayArrivalPercentage</t>
   </si>
   <si>
-    <t>WeekdayArrivalNormalDistribution</t>
-  </si>
-  <si>
     <t>WeekendArrivalPercentage</t>
   </si>
   <si>
-    <t>WeekendArrivalNormalDistribution</t>
-  </si>
-  <si>
     <t>WeekdayDeparturePercentage</t>
   </si>
   <si>
-    <t>WeekdayDepartureNormalDistribution</t>
-  </si>
-  <si>
     <t>WeekendDeparturePercentage</t>
   </si>
   <si>
-    <t>WeekendDepartureNormalDistribution</t>
-  </si>
-  <si>
     <t>TimeUpperBound</t>
   </si>
   <si>
     <t>TimeLowerBound</t>
   </si>
   <si>
-    <t>SoCLowerBound</t>
-  </si>
-  <si>
-    <t>SoCUpperBound</t>
-  </si>
-  <si>
     <t>Probability</t>
   </si>
   <si>
     <t>Model</t>
   </si>
   <si>
-    <t>BatteryCapacity</t>
-  </si>
-  <si>
-    <t>MaxChargingPower</t>
-  </si>
-  <si>
-    <t>MaxFastChargingPower</t>
-  </si>
-  <si>
     <t>honda e</t>
   </si>
   <si>
@@ -156,6 +129,21 @@
   </si>
   <si>
     <t>SoCID</t>
+  </si>
+  <si>
+    <t>BatteryCapacity(kWh)</t>
+  </si>
+  <si>
+    <t>MaxChargingPower(kW)</t>
+  </si>
+  <si>
+    <t>MaxFastChargingPower(kW)</t>
+  </si>
+  <si>
+    <t>SoCLowerBound(%)</t>
+  </si>
+  <si>
+    <t>SoCUpperBound(%)</t>
   </si>
 </sst>
 </file>
@@ -197,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -206,7 +194,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D472C54-A51B-4405-9CBF-1F245D04B917}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,9 +519,7 @@
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -543,13 +528,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -557,22 +542,11 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1">
-        <v>33418</v>
-      </c>
-      <c r="I1" s="1">
-        <f>SUM(I2:I25)</f>
-        <v>31424.902566948953</v>
-      </c>
-      <c r="J1" s="1">
-        <v>100</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -588,22 +562,12 @@
         <v>0.62135838833824253</v>
       </c>
       <c r="E2" s="1">
-        <v>1.8473115289370204E-6</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:F25" si="0">H2/$H$1*$J$1</f>
         <v>0.11071877431324435</v>
       </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2:G25" si="1">I2/$I$1*$J$1</f>
-        <v>2.8497847838263732E-5</v>
-      </c>
-      <c r="H2" s="1">
-        <v>37</v>
-      </c>
-      <c r="I2" s="1">
-        <v>8.955420916851746E-3</v>
-      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -620,22 +584,12 @@
         <v>4.7300638558620545E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>9.156428569784439E-5</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" si="0"/>
         <v>8.0794781255610751E-2</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7706619678650094E-4</v>
-      </c>
-      <c r="H3" s="1">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.14991758752000686</v>
-      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -652,22 +606,12 @@
         <v>7.5251015888714495E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>2.6836278908027316E-3</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
         <v>7.4809982644084019E-2</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8749676340004667E-3</v>
-      </c>
-      <c r="H4" s="1">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.8462028548244329</v>
-      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -684,22 +628,12 @@
         <v>0.25370342499623749</v>
       </c>
       <c r="E5" s="1">
-        <v>4.6062822478412417E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
         <v>0.22143754862648871</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.1123249420412624E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>74</v>
-      </c>
-      <c r="I5" s="1">
-        <v>16.065431319422963</v>
-      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -716,22 +650,12 @@
         <v>0.46655629851002989</v>
       </c>
       <c r="E6" s="1">
-        <v>0.46401136411024579</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
         <v>0.39200430905500028</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.31452792609999908</v>
-      </c>
-      <c r="H6" s="1">
-        <v>131</v>
-      </c>
-      <c r="I6" s="1">
-        <v>98.840094322769914</v>
-      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -748,22 +672,12 @@
         <v>1.2943174732858893</v>
       </c>
       <c r="E7" s="1">
-        <v>2.7489032864159397</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
         <v>1.0652941528517565</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3688394100424333</v>
-      </c>
-      <c r="H7" s="1">
-        <v>356</v>
-      </c>
-      <c r="I7" s="1">
-        <v>430.15645090383356</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -780,22 +694,12 @@
         <v>4.8332652490808625</v>
       </c>
       <c r="E8" s="1">
-        <v>9.5953320028375675</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
         <v>3.22281405230714</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>4.2159627713177441</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1077</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1324.862193145442</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -812,22 +716,12 @@
         <v>24.82638515619961</v>
       </c>
       <c r="E9" s="1">
-        <v>19.764268520757021</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
         <v>7.9897061463881744</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>9.1929499308106255</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2670</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2888.8755587856399</v>
-      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -844,22 +738,12 @@
         <v>30.586312915224354</v>
       </c>
       <c r="E10" s="1">
-        <v>24.045330881796716</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
         <v>12.253875157100962</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>14.19534255820785</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4095</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4460.8725679614554</v>
-      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -876,22 +760,12 @@
         <v>8.9957214422394696</v>
       </c>
       <c r="E11" s="1">
-        <v>17.283256488103905</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
         <v>12.002513615416841</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>15.525240516602832</v>
-      </c>
-      <c r="H11" s="1">
-        <v>4011</v>
-      </c>
-      <c r="I11" s="1">
-        <v>4878.7917056269216</v>
-      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -908,22 +782,12 @@
         <v>7.0886456967169051</v>
       </c>
       <c r="E12" s="1">
-        <v>7.3362101648544131</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
         <v>14.994912921180203</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>12.026704204945389</v>
-      </c>
-      <c r="H12" s="1">
-        <v>5011</v>
-      </c>
-      <c r="I12" s="1">
-        <v>3779.3800784192413</v>
-      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -940,22 +804,12 @@
         <v>4.0700049450667581</v>
       </c>
       <c r="E13" s="1">
-        <v>1.8369298471353146</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
         <v>10.521275959063978</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5982689803899213</v>
-      </c>
-      <c r="H13" s="1">
-        <v>3516</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2073.4995981927486</v>
-      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -972,22 +826,12 @@
         <v>2.0962782997570466</v>
       </c>
       <c r="E14" s="1">
-        <v>1.3952490330351652</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
         <v>4.8536716739481722</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>3.4127914382670155</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1622</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1072.4663842885855</v>
-      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1004,22 +848,12 @@
         <v>3.4292962954999897</v>
       </c>
       <c r="E15" s="1">
-        <v>2.1034966477563364</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
         <v>7.5977018373331733</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>5.3168786073267666</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2539</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1670.8239219553889</v>
-      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1036,22 +870,12 @@
         <v>2.887488981101245</v>
       </c>
       <c r="E16" s="1">
-        <v>2.6958177418189342</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
         <v>7.2745227123107314</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>6.7605270249040545</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2431</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2124.4890305883519</v>
-      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1068,22 +892,12 @@
         <v>2.3198813183977984</v>
       </c>
       <c r="E17" s="1">
-        <v>2.9369855762866406</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
         <v>5.5239691184391653</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>7.0159869463875149</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1846</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2204.7670620121335</v>
-      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1100,22 +914,12 @@
         <v>1.9565264131065767</v>
       </c>
       <c r="E18" s="1">
-        <v>2.720051096728402</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
         <v>4.4257585732240114</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>5.9426832255525417</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1479</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1867.4824134923056</v>
-      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1132,22 +936,12 @@
         <v>1.3502182279460773</v>
       </c>
       <c r="E19" s="1">
-        <v>2.1414850090743434</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
         <v>2.9983841043748876</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1082485807640294</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1002</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1291.0131137131596</v>
-      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1164,22 +958,12 @@
         <v>1.0857646578228806</v>
       </c>
       <c r="E20" s="1">
-        <v>1.4332168634759863</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
         <v>2.0468011251421387</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3179260062799174</v>
-      </c>
-      <c r="H20" s="1">
-        <v>684</v>
-      </c>
-      <c r="I20" s="1">
-        <v>728.40598904743513</v>
-      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1196,22 +980,12 @@
         <v>0.78046053621723899</v>
       </c>
       <c r="E21" s="1">
-        <v>0.81538232560795876</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
         <v>1.0473397570171765</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0673170085240304</v>
-      </c>
-      <c r="H21" s="1">
-        <v>350</v>
-      </c>
-      <c r="I21" s="1">
-        <v>335.40333000915086</v>
-      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1228,22 +1002,12 @@
         <v>0.41495560190062564</v>
       </c>
       <c r="E22" s="1">
-        <v>0.39432502460809721</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
         <v>0.55658627087198509</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>0.40106505186658797</v>
-      </c>
-      <c r="H22" s="1">
-        <v>186</v>
-      </c>
-      <c r="I22" s="1">
-        <v>126.03430177915855</v>
-      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1260,22 +1024,12 @@
         <v>0.27735374427554771</v>
       </c>
       <c r="E23" s="1">
-        <v>0.1620988134276081</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
         <v>0.38003471183194687</v>
       </c>
-      <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>0.122980125448527</v>
-      </c>
-      <c r="H23" s="1">
-        <v>127</v>
-      </c>
-      <c r="I23" s="1">
-        <v>38.646384598911204</v>
-      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1292,22 +1046,12 @@
         <v>0.15050203177742899</v>
       </c>
       <c r="E24" s="1">
-        <v>5.664014395011624E-2</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
         <v>0.17954395834580167</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0769480188215188E-2</v>
-      </c>
-      <c r="H24" s="1">
-        <v>60</v>
-      </c>
-      <c r="I24" s="1">
-        <v>9.6692791695032838</v>
-      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1324,22 +1068,12 @@
         <v>9.2451248091849236E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>2.2174670170752371E-2</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
         <v>0.1855287569573284</v>
       </c>
-      <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4864249749468032E-3</v>
-      </c>
-      <c r="H25" s="1">
-        <v>62</v>
-      </c>
-      <c r="I25" s="1">
-        <v>2.3526017541247657</v>
-      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1357,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061AB52F-79DA-49CF-A8B1-452FEE71DDBD}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,8 +1100,8 @@
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
@@ -1379,41 +1113,26 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1">
-        <v>100</v>
-      </c>
-      <c r="I1" s="1">
-        <v>46536</v>
-      </c>
-      <c r="J1" s="1">
-        <v>45116</v>
-      </c>
-      <c r="K1" s="1">
-        <v>31179</v>
-      </c>
-      <c r="L1" s="1">
-        <v>28823</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1426,33 +1145,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D25" si="0">I2/$I$1*$H$1</f>
         <v>0.33522434244455906</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E25" si="1">J2/$J$1*$H$1</f>
-        <v>9.2971950263238332E-3</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F25" si="2">K2/$K$1*$H$1</f>
         <v>0.33676513037621475</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G25" si="3">L2/$L$1*$H$1</f>
-        <v>3.9570712100779121E-4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>156</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4.1945225080762603</v>
-      </c>
-      <c r="K2" s="1">
-        <v>105</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.11405466348807566</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1465,33 +1166,15 @@
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
         <v>0.32018222451435446</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
-        <v>2.1261286339805712E-2</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="2"/>
         <v>0.29827768690464734</v>
       </c>
-      <c r="G3">
-        <f t="shared" si="3"/>
-        <v>2.0708537548562505E-3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>149</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9.5922419450667444</v>
-      </c>
-      <c r="K3" s="1">
-        <v>93</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.59688217776221708</v>
-      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1504,33 +1187,15 @@
         <v>0.125</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
         <v>0.27720474471376999</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>5.8769063994860669E-2</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
         <v>0.192437217357837</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
-        <v>1.0369016694829342E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>129</v>
-      </c>
-      <c r="J4" s="1">
-        <v>26.514250911921337</v>
-      </c>
-      <c r="K4" s="1">
-        <v>60</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2.9886616819506608</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1543,33 +1208,15 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
         <v>9.0252707581227443E-2</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.1432966814952604</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
         <v>0.11225504345873825</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>4.303527326715139E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>42</v>
-      </c>
-      <c r="J5" s="1">
-        <v>64.649730823401683</v>
-      </c>
-      <c r="K5" s="1">
-        <v>35</v>
-      </c>
-      <c r="L5" s="1">
-        <v>12.404056813791046</v>
-      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1582,33 +1229,15 @@
         <v>0.20833333333333301</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
         <v>6.2317345710847516E-2</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.30821782875644216</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
         <v>8.0182173899098749E-2</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>0.14806095261858088</v>
-      </c>
-      <c r="I6" s="1">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1">
-        <v>139.05555562175644</v>
-      </c>
-      <c r="K6" s="1">
-        <v>25</v>
-      </c>
-      <c r="L6" s="1">
-        <v>42.675608373253567</v>
-      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1621,33 +1250,15 @@
         <v>0.25</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
         <v>0.12678356541172425</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.58481568353691593</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
         <v>0.10584046954681034</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>0.42229184003037318</v>
-      </c>
-      <c r="I7" s="1">
-        <v>59</v>
-      </c>
-      <c r="J7" s="1">
-        <v>263.845443784515</v>
-      </c>
-      <c r="K7" s="1">
-        <v>33</v>
-      </c>
-      <c r="L7" s="1">
-        <v>121.71717705195448</v>
-      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1660,33 +1271,15 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
         <v>0.31803335052432524</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.97886871050639657</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
         <v>0.36242342602392635</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>0.9985386251904389</v>
-      </c>
-      <c r="I8" s="1">
-        <v>148</v>
-      </c>
-      <c r="J8" s="1">
-        <v>441.62640743206583</v>
-      </c>
-      <c r="K8" s="1">
-        <v>113</v>
-      </c>
-      <c r="L8" s="1">
-        <v>287.80878793864019</v>
-      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1699,33 +1292,15 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
         <v>0.53292074952724777</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>1.4453657718208079</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
         <v>0.68315212162032135</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>1.9575696611771702</v>
-      </c>
-      <c r="I9" s="1">
-        <v>248</v>
-      </c>
-      <c r="J9" s="1">
-        <v>652.09122161467576</v>
-      </c>
-      <c r="K9" s="1">
-        <v>213</v>
-      </c>
-      <c r="L9" s="1">
-        <v>564.23030344109577</v>
-      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1738,33 +1313,15 @@
         <v>0.375</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
         <v>0.80152999828090077</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>1.8827029180622437</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
         <v>1.03916097373232</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>3.1818953104477665</v>
-      </c>
-      <c r="I10" s="1">
-        <v>373</v>
-      </c>
-      <c r="J10" s="1">
-        <v>849.40024851296175</v>
-      </c>
-      <c r="K10" s="1">
-        <v>324</v>
-      </c>
-      <c r="L10" s="1">
-        <v>917.11768533035979</v>
-      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1777,33 +1334,15 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
         <v>1.3516417397283824</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>2.1634081743088958</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
         <v>2.0847365213765676</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>4.2882756481706013</v>
-      </c>
-      <c r="I11" s="1">
-        <v>629</v>
-      </c>
-      <c r="J11" s="1">
-        <v>976.04323192120148</v>
-      </c>
-      <c r="K11" s="1">
-        <v>650</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1236.0096900722124</v>
-      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1816,33 +1355,15 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
         <v>2.7226233453670279</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>2.1930513285292443</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
         <v>4.7788575643862856</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>4.7919801329922196</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1267</v>
-      </c>
-      <c r="J12" s="1">
-        <v>989.41703737925377</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1490</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1381.1924337323474</v>
-      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1855,33 +1376,15 @@
         <v>0.5</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
         <v>5.0111741447481517</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>1.9611593650222561</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
         <v>9.4614965200936521</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>4.4400267688505561</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2332</v>
-      </c>
-      <c r="J13" s="1">
-        <v>884.79665912344103</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2950</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1279.7489155857959</v>
-      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1894,33 +1397,15 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
         <v>3.2447997249441292</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>1.5471410719848113</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
         <v>6.1387472337150006</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>3.4110849724739567</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1510</v>
-      </c>
-      <c r="J14" s="1">
-        <v>698.00816603666749</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1914</v>
-      </c>
-      <c r="L14" s="1">
-        <v>983.17702161616842</v>
-      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1933,33 +1418,15 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
         <v>2.9117242564895998</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>1.7781943796309245</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
         <v>6.2477949902177743</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>4.6294591462269841</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1355</v>
-      </c>
-      <c r="J15" s="1">
-        <v>802.25017631428796</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1948</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1334.3490097170036</v>
-      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1972,33 +1439,15 @@
         <v>0.625</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
         <v>3.8615265600825168</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>4.3403639509095964</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
         <v>8.3164950768145225</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>7.5503494504434956</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1797</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1958.1986000923735</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2593</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2176.2372221013288</v>
-      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -2011,33 +1460,15 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
         <v>5.5548392642255457</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>8.4482018808389103</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
         <v>11.16456589371051</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>10.502887377123466</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2585</v>
-      </c>
-      <c r="J17" s="1">
-        <v>3811.4907605592834</v>
-      </c>
-      <c r="K17" s="1">
-        <v>3481</v>
-      </c>
-      <c r="L17" s="1">
-        <v>3027.2472287082965</v>
-      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2050,33 +1481,15 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
         <v>7.7273508681450913</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>13.113601938556577</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
         <v>12.017704223996921</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>12.461208713376982</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3596</v>
-      </c>
-      <c r="J18" s="1">
-        <v>5916.3326505991845</v>
-      </c>
-      <c r="K18" s="1">
-        <v>3747</v>
-      </c>
-      <c r="L18" s="1">
-        <v>3591.6941874566473</v>
-      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2089,33 +1502,15 @@
         <v>0.75</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
         <v>22.333247378373734</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>16.23373270839754</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
         <v>11.70018281535649</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>12.610259259566767</v>
-      </c>
-      <c r="I19" s="1">
-        <v>10393</v>
-      </c>
-      <c r="J19" s="1">
-        <v>7324.0108487206335</v>
-      </c>
-      <c r="K19" s="1">
-        <v>3648</v>
-      </c>
-      <c r="L19" s="1">
-        <v>3634.6550263849294</v>
-      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2128,33 +1523,15 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
         <v>17.882929345023207</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>16.027391729079369</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
         <v>8.2459347637833158</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
-        <v>10.884298018624193</v>
-      </c>
-      <c r="I20" s="1">
-        <v>8322</v>
-      </c>
-      <c r="J20" s="1">
-        <v>7230.9180524914473</v>
-      </c>
-      <c r="K20" s="1">
-        <v>2571</v>
-      </c>
-      <c r="L20" s="1">
-        <v>3137.1812179080512</v>
-      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2167,33 +1544,15 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
         <v>10.56171566099364</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>12.619868060335152</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
         <v>5.5742647294653453</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>8.0128530092654202</v>
-      </c>
-      <c r="I21" s="1">
-        <v>4915</v>
-      </c>
-      <c r="J21" s="1">
-        <v>5693.5796741008071</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1738</v>
-      </c>
-      <c r="L21" s="1">
-        <v>2309.544622860572</v>
-      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -2206,33 +1565,15 @@
         <v>0.875</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
         <v>6.5433212996389889</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
-        <v>7.924717300262464</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
         <v>4.3490811122871165</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>5.0312937576946037</v>
-      </c>
-      <c r="I22" s="1">
-        <v>3045</v>
-      </c>
-      <c r="J22" s="1">
-        <v>3575.3154571864134</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1356</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1450.1697997803158</v>
-      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2245,33 +1586,15 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
         <v>3.7325941206807633</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
-        <v>3.9685290767730952</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
         <v>2.9378748516629782</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
-        <v>2.6944554536050052</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1737</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1790.4415782769497</v>
-      </c>
-      <c r="K23" s="1">
-        <v>916</v>
-      </c>
-      <c r="L23" s="1">
-        <v>776.62289539257063</v>
-      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2284,33 +1607,15 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
         <v>2.1832559738696924</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
-        <v>1.5847574958096993</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
         <v>2.055870938772892</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
-        <v>1.230699507262768</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1016</v>
-      </c>
-      <c r="J24" s="1">
-        <v>714.97919180950396</v>
-      </c>
-      <c r="K24" s="1">
-        <v>641</v>
-      </c>
-      <c r="L24" s="1">
-        <v>354.72451897834765</v>
-      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2323,33 +1628,15 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
         <v>1.5128072889805741</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
-        <v>0.66339407127763828</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
         <v>1.7158985214407132</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>0.69742051029616325</v>
-      </c>
-      <c r="I25" s="1">
-        <v>704</v>
-      </c>
-      <c r="J25" s="1">
-        <v>299.29686919761929</v>
-      </c>
-      <c r="K25" s="1">
-        <v>535</v>
-      </c>
-      <c r="L25" s="1">
-        <v>201.01751368266312</v>
-      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2361,29 +1648,28 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,29 +1962,28 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2990,39 +2275,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEAC849-9A27-4C43-88BA-A423954EB3D0}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>28.5</v>
@@ -3030,7 +2315,7 @@
       <c r="C2">
         <v>6.6</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>56</v>
       </c>
       <c r="E2">
@@ -3039,7 +2324,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -3047,7 +2332,7 @@
       <c r="C3">
         <v>11</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>250</v>
       </c>
       <c r="E3">
@@ -3056,7 +2341,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>57.5</v>
@@ -3064,7 +2349,7 @@
       <c r="C4">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>170</v>
       </c>
       <c r="E4">
@@ -3073,7 +2358,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>75</v>
@@ -3081,7 +2366,7 @@
       <c r="C5">
         <v>11</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>250</v>
       </c>
       <c r="E5">
@@ -3090,7 +2375,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>80.7</v>
@@ -3098,7 +2383,7 @@
       <c r="C6">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>200</v>
       </c>
       <c r="E6">
@@ -3107,7 +2392,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>107.8</v>
@@ -3115,7 +2400,7 @@
       <c r="C7">
         <v>11</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>207</v>
       </c>
       <c r="E7">
@@ -3124,7 +2409,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>74</v>
@@ -3132,7 +2417,7 @@
       <c r="C8">
         <v>11</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>233</v>
       </c>
       <c r="E8">
@@ -3141,7 +2426,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>60</v>
@@ -3149,7 +2434,7 @@
       <c r="C9">
         <v>22</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>130</v>
       </c>
       <c r="E9">
@@ -3158,7 +2443,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>87</v>
@@ -3166,7 +2451,7 @@
       <c r="C10">
         <v>7.4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>130</v>
       </c>
       <c r="E10">
@@ -3175,7 +2460,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>64.8</v>
@@ -3183,7 +2468,7 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>80</v>
       </c>
       <c r="E11">
@@ -3192,7 +2477,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>77</v>
@@ -3200,7 +2485,7 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>135</v>
       </c>
       <c r="E12">
@@ -3209,7 +2494,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>90.6</v>
@@ -3217,7 +2502,7 @@
       <c r="C13">
         <v>11</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>170</v>
       </c>
       <c r="E13">
@@ -3226,7 +2511,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>105.2</v>
@@ -3234,7 +2519,7 @@
       <c r="C14">
         <v>11</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>196</v>
       </c>
       <c r="E14">
@@ -3243,7 +2528,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>64</v>
@@ -3251,7 +2536,7 @@
       <c r="C15">
         <v>11</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>77</v>
       </c>
       <c r="E15">
@@ -3260,7 +2545,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>71</v>
@@ -3268,7 +2553,7 @@
       <c r="C16">
         <v>11</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>149</v>
       </c>
       <c r="E16">
@@ -3277,7 +2562,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>74</v>
@@ -3285,7 +2570,7 @@
       <c r="C17">
         <v>11</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>233</v>
       </c>
       <c r="E17">
@@ -3294,7 +2579,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>95</v>
@@ -3302,7 +2587,7 @@
       <c r="C18">
         <v>16.5</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>250</v>
       </c>
       <c r="E18">
@@ -3311,7 +2596,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>107.8</v>
@@ -3319,7 +2604,7 @@
       <c r="C19">
         <v>11</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <v>207</v>
       </c>
       <c r="E19">
@@ -3328,7 +2613,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>80.7</v>
@@ -3336,7 +2621,7 @@
       <c r="C20">
         <v>11</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>200</v>
       </c>
       <c r="E20">
@@ -3345,7 +2630,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>85</v>
@@ -3353,7 +2638,7 @@
       <c r="C21">
         <v>11</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>265</v>
       </c>
       <c r="E21">
